--- a/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
+++ b/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s.bohn/Developer/Bachelorarbeit_Repo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian Bohn\Developer\Bachelorarbeit_Repo\Quellen und Vorlagen\Excell-Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-4340" windowWidth="31060" windowHeight="27800" tabRatio="500"/>
+    <workbookView xWindow="38400" yWindow="-4335" windowWidth="31065" windowHeight="27795" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Android Versionen" sheetId="1" r:id="rId1"/>
-    <sheet name="IOS Versionen" sheetId="2" r:id="rId2"/>
+    <sheet name="Quellen_Reihenfolge" sheetId="3" r:id="rId2"/>
+    <sheet name="IOS Versionen" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="166">
   <si>
     <t>Android Versionen</t>
   </si>
@@ -448,6 +449,81 @@
   </si>
   <si>
     <t>Erscheinungsdatum</t>
+  </si>
+  <si>
+    <t>Open Handset Alliance - Android Overview(2015)</t>
+  </si>
+  <si>
+    <t>Open Handset Alliance - Alliance Overview(2015)</t>
+  </si>
+  <si>
+    <t>Open Handset Alliance - Alliance Members(2015)</t>
+  </si>
+  <si>
+    <t>Android Source - Codenames, Tags, and Build Numbers(2015)</t>
+  </si>
+  <si>
+    <t>Wikipedia - Liste von Android-Versionen(2015)</t>
+  </si>
+  <si>
+    <t>John Daintith(2004)</t>
+  </si>
+  <si>
+    <t>Sue Smith(2013)</t>
+  </si>
+  <si>
+    <t>the iphone wiki(2015</t>
+  </si>
+  <si>
+    <t>Oracle - Java SE(2015)</t>
+  </si>
+  <si>
+    <t>Android Develop Tools(2015)</t>
+  </si>
+  <si>
+    <t>Reddit(2015)</t>
+  </si>
+  <si>
+    <t>Microsoft(2014)</t>
+  </si>
+  <si>
+    <t>Golem(2015)</t>
+  </si>
+  <si>
+    <t>Microsoft(2015)</t>
+  </si>
+  <si>
+    <t>Fran Berkman(2012)</t>
+  </si>
+  <si>
+    <t>IDC (2015)</t>
+  </si>
+  <si>
+    <t>Kantar (2015)</t>
+  </si>
+  <si>
+    <t>Statista (2015)</t>
+  </si>
+  <si>
+    <t>Distimo (2014)</t>
+  </si>
+  <si>
+    <t>Bernardo Zamora (2015)</t>
+  </si>
+  <si>
+    <t>PocketGamer.biz (2015)</t>
+  </si>
+  <si>
+    <t>techopedia (2015)</t>
+  </si>
+  <si>
+    <t>El-Kassas, Wafaa S. \&amp; Abdullah, Bassem A. \&amp;  Yousef, Ahmed H. \&amp;  Wahba, Ayman M.(2015)</t>
+  </si>
+  <si>
+    <t>Vehse, Benjamin(2014)</t>
+  </si>
+  <si>
+    <t>XMLVM (2011)</t>
   </si>
 </sst>
 </file>
@@ -703,15 +779,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -980,30 +1059,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1017,7 +1096,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1031,7 +1110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1045,7 +1124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1059,7 +1138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1073,7 +1152,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1087,7 +1166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1101,7 +1180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1115,7 +1194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1129,7 +1208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -1143,7 +1222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1157,7 +1236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -1171,7 +1250,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
@@ -1185,7 +1264,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1199,7 +1278,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
@@ -1213,7 +1292,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -1227,7 +1306,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
@@ -1241,7 +1320,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
@@ -1255,7 +1334,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>43</v>
       </c>
@@ -1269,7 +1348,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>43</v>
       </c>
@@ -1283,7 +1362,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
@@ -1297,7 +1376,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -1311,7 +1390,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>50</v>
       </c>
@@ -1325,7 +1404,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -1339,13 +1418,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D27"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D28"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D29"/>
     </row>
   </sheetData>
@@ -1357,28 +1436,169 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A25">
+    <sortCondition ref="A9"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
     </row>
-    <row r="4" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -1389,7 +1609,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>63</v>
       </c>
@@ -1400,7 +1620,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>65</v>
       </c>
@@ -1411,7 +1631,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>67</v>
       </c>
@@ -1422,7 +1642,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>69</v>
       </c>
@@ -1433,7 +1653,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>71</v>
       </c>
@@ -1444,7 +1664,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>72</v>
       </c>
@@ -1455,7 +1675,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
@@ -1466,7 +1686,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>76</v>
       </c>
@@ -1477,7 +1697,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>78</v>
       </c>
@@ -1488,7 +1708,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>80</v>
       </c>
@@ -1499,7 +1719,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>82</v>
       </c>
@@ -1510,7 +1730,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>84</v>
       </c>
@@ -1521,7 +1741,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>86</v>
       </c>
@@ -1532,7 +1752,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>88</v>
       </c>
@@ -1543,13 +1763,13 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
     </row>
-    <row r="21" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>1</v>
       </c>
@@ -1560,7 +1780,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>90</v>
       </c>
@@ -1571,7 +1791,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>90</v>
       </c>
@@ -1582,7 +1802,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>90</v>
       </c>
@@ -1593,7 +1813,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>93</v>
       </c>
@@ -1604,7 +1824,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>95</v>
       </c>
@@ -1615,7 +1835,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>96</v>
       </c>
@@ -1626,7 +1846,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>97</v>
       </c>
@@ -1637,7 +1857,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>99</v>
       </c>
@@ -1648,7 +1868,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>102</v>
       </c>
@@ -1659,7 +1879,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>105</v>
       </c>
@@ -1670,7 +1890,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>108</v>
       </c>
@@ -1681,7 +1901,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>111</v>
       </c>

--- a/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
+++ b/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-4335" windowWidth="31065" windowHeight="27795" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="38400" yWindow="-4335" windowWidth="31065" windowHeight="27795" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Android Versionen" sheetId="1" r:id="rId1"/>
-    <sheet name="Quellen_Reihenfolge" sheetId="3" r:id="rId2"/>
-    <sheet name="IOS Versionen" sheetId="2" r:id="rId3"/>
+    <sheet name="WP_Versions" sheetId="4" r:id="rId2"/>
+    <sheet name="Quellen_Reihenfolge" sheetId="3" r:id="rId3"/>
+    <sheet name="IOS Versionen" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="221">
   <si>
     <t>Android Versionen</t>
   </si>
@@ -524,13 +525,180 @@
   </si>
   <si>
     <t>XMLVM (2011)</t>
+  </si>
+  <si>
+    <t>MacinCloud (2015)</t>
+  </si>
+  <si>
+    <t>Mac Developer Library (2014)</t>
+  </si>
+  <si>
+    <t>Apple Developer (2015)</t>
+  </si>
+  <si>
+    <t>t3n (2015)</t>
+  </si>
+  <si>
+    <t>JetBrains (2015)</t>
+  </si>
+  <si>
+    <t>Windows Phone 7</t>
+  </si>
+  <si>
+    <t>7.0.7004.0</t>
+  </si>
+  <si>
+    <t>7.0.7008.0</t>
+  </si>
+  <si>
+    <t>21. Oktober 2010</t>
+  </si>
+  <si>
+    <t>PreNoDo</t>
+  </si>
+  <si>
+    <t>21. Februar 2011</t>
+  </si>
+  <si>
+    <t>7.0.7390.0</t>
+  </si>
+  <si>
+    <t>NoDo</t>
+  </si>
+  <si>
+    <t>7.0.7392.0</t>
+  </si>
+  <si>
+    <t>7.0.7403.0</t>
+  </si>
+  <si>
+    <t>7.10.7720.68 </t>
+  </si>
+  <si>
+    <t>7.5 / Mango</t>
+  </si>
+  <si>
+    <t>7.10.7740.16</t>
+  </si>
+  <si>
+    <t>7.10.8107.79</t>
+  </si>
+  <si>
+    <t>7.10.8112.7</t>
+  </si>
+  <si>
+    <t>7.10.8773.98 </t>
+  </si>
+  <si>
+    <t>7.5 Refresh / Tango</t>
+  </si>
+  <si>
+    <t>7.10.8779.8</t>
+  </si>
+  <si>
+    <t>7.10.8783.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30. Januar 2013 
+</t>
+  </si>
+  <si>
+    <t>7.10.8858.136 </t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>7.10.8860.142</t>
+  </si>
+  <si>
+    <t>7.10.8862.144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15. März 2013 
+</t>
+  </si>
+  <si>
+    <t>8.0.9903.10</t>
+  </si>
+  <si>
+    <t>29.10.2012 </t>
+  </si>
+  <si>
+    <t>Portico</t>
+  </si>
+  <si>
+    <t>8.0.10211.204</t>
+  </si>
+  <si>
+    <t>29.01.2013 </t>
+  </si>
+  <si>
+    <t>Apollo+</t>
+  </si>
+  <si>
+    <t>8.0.10327.77</t>
+  </si>
+  <si>
+    <t>14.10.2013 </t>
+  </si>
+  <si>
+    <t>8.0.10512.142</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>8.10.12397.895</t>
+  </si>
+  <si>
+    <t>16.07.2014 </t>
+  </si>
+  <si>
+    <t>05.12.2014 </t>
+  </si>
+  <si>
+    <t>8.10.14234.375</t>
+  </si>
+  <si>
+    <t>8.10.15148.160</t>
+  </si>
+  <si>
+    <t>8.0 / Apollo</t>
+  </si>
+  <si>
+    <t>Windows 10</t>
+  </si>
+  <si>
+    <t>10.0.10586.0</t>
+  </si>
+  <si>
+    <t>10.0.10586.29</t>
+  </si>
+  <si>
+    <t>Wikipedia - Windows Phone 7 (2015</t>
+  </si>
+  <si>
+    <t>Wikipedia - Windows Phone 8 (2015)</t>
+  </si>
+  <si>
+    <t>Wikipedia - Windows 10 (2015)</t>
+  </si>
+  <si>
+    <t>YoYo Games (2013)</t>
+  </si>
+  <si>
+    <t>Microsoft Developer (2015)</t>
+  </si>
+  <si>
+    <t>MSDN (2015)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -599,8 +767,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,8 +807,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF06C47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCEE482"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -696,13 +908,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -777,6 +1004,45 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="11" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="11" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="11" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1065,7 +1331,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D26"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1436,9 +1702,270 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="30">
+        <v>40624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="30">
+        <v>40666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="33">
+        <v>40787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="30">
+        <v>40813</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="30">
+        <v>40864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="30">
+        <v>40912</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="33">
+        <v>41061</v>
+      </c>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="30">
+        <v>41087</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="35">
+        <v>41136</v>
+      </c>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="30">
+        <v>41304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="37">
+        <v>41347</v>
+      </c>
+      <c r="D15" s="38"/>
+    </row>
+    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="40">
+        <v>41474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="40">
+        <v>42105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="40">
+        <v>42328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="40">
+        <v>42346</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1454,128 +1981,183 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>165</v>
       </c>
     </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>218</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:A25">
-    <sortCondition ref="A9"/>
+  <sortState ref="A1:A36">
+    <sortCondition ref="A36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>

--- a/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
+++ b/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
@@ -15,9 +15,10 @@
     <sheet name="Android Versionen" sheetId="1" r:id="rId1"/>
     <sheet name="WP_Versions" sheetId="4" r:id="rId2"/>
     <sheet name="Quellen_Reihenfolge" sheetId="3" r:id="rId3"/>
-    <sheet name="IOS Versionen" sheetId="2" r:id="rId4"/>
+    <sheet name="Zielplattformen" sheetId="5" r:id="rId4"/>
+    <sheet name="IOS Versionen" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="262">
   <si>
     <t>Android Versionen</t>
   </si>
@@ -692,13 +693,136 @@
   </si>
   <si>
     <t>MSDN (2015)</t>
+  </si>
+  <si>
+    <t>Plattformen Unterstützung</t>
+  </si>
+  <si>
+    <t>Entwicklungsplattformen</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>Cocos2D</t>
+  </si>
+  <si>
+    <t>LibGdx</t>
+  </si>
+  <si>
+    <t>Unity3D</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Windows Phone 8</t>
+  </si>
+  <si>
+    <t>Universal Windows Platform</t>
+  </si>
+  <si>
+    <t>Mobil</t>
+  </si>
+  <si>
+    <t>Linux / Steam OS</t>
+  </si>
+  <si>
+    <t>Tizen</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Web GL</t>
+  </si>
+  <si>
+    <t>Web Player</t>
+  </si>
+  <si>
+    <t>Konsole</t>
+  </si>
+  <si>
+    <t>Playstation 3</t>
+  </si>
+  <si>
+    <t>Playstation 4</t>
+  </si>
+  <si>
+    <t>Xbox One</t>
+  </si>
+  <si>
+    <t>Xbox 360</t>
+  </si>
+  <si>
+    <t>Playstation Vita</t>
+  </si>
+  <si>
+    <t>Wii U</t>
+  </si>
+  <si>
+    <t>VR Brillen</t>
+  </si>
+  <si>
+    <t>Oculus Rift</t>
+  </si>
+  <si>
+    <t>Samsung Gear VR</t>
+  </si>
+  <si>
+    <t>Playstation VR</t>
+  </si>
+  <si>
+    <t>Smart TV</t>
+  </si>
+  <si>
+    <t>Android TV</t>
+  </si>
+  <si>
+    <t>Samsung Smart TV</t>
+  </si>
+  <si>
+    <t>Blackberry</t>
+  </si>
+  <si>
+    <t>Java Applet</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>Unity3D(2015)</t>
+  </si>
+  <si>
+    <t>Cocos2D-X(2015)</t>
+  </si>
+  <si>
+    <t>libGDX(2015)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -786,6 +910,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -929,7 +1061,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1043,6 +1175,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1961,10 +2094,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1991,173 +2124,672 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>215</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>218</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A36">
-    <sortCondition ref="A36"/>
+  <sortState ref="A1:A39">
+    <sortCondition ref="A39"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>255</v>
+      </c>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>236</v>
+      </c>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>239</v>
+      </c>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>240</v>
+      </c>
+      <c r="B29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" t="s">
+        <v>257</v>
+      </c>
+      <c r="D29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" t="s">
+        <v>257</v>
+      </c>
+      <c r="C30" t="s">
+        <v>257</v>
+      </c>
+      <c r="D30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" t="s">
+        <v>257</v>
+      </c>
+      <c r="D31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" t="s">
+        <v>257</v>
+      </c>
+      <c r="D32" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34" t="s">
+        <v>257</v>
+      </c>
+      <c r="C34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>247</v>
+      </c>
+      <c r="B37" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" t="s">
+        <v>257</v>
+      </c>
+      <c r="D37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>248</v>
+      </c>
+      <c r="B38" t="s">
+        <v>257</v>
+      </c>
+      <c r="C38" t="s">
+        <v>257</v>
+      </c>
+      <c r="D38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" t="s">
+        <v>257</v>
+      </c>
+      <c r="C39" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>250</v>
+      </c>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>251</v>
+      </c>
+      <c r="B42" t="s">
+        <v>257</v>
+      </c>
+      <c r="C42" t="s">
+        <v>257</v>
+      </c>
+      <c r="D42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>252</v>
+      </c>
+      <c r="B43" t="s">
+        <v>257</v>
+      </c>
+      <c r="C43" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>23</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>

--- a/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
+++ b/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-4335" windowWidth="31065" windowHeight="27795" tabRatio="500" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="38400" yWindow="-4335" windowWidth="31065" windowHeight="27795" tabRatio="500" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Android Versionen" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Quellen_Reihenfolge" sheetId="3" r:id="rId3"/>
     <sheet name="Zielplattformen" sheetId="5" r:id="rId4"/>
     <sheet name="IOS Versionen" sheetId="2" r:id="rId5"/>
+    <sheet name="Unity_Produkte" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="278">
   <si>
     <t>Android Versionen</t>
   </si>
@@ -816,6 +817,54 @@
   </si>
   <si>
     <t>libGDX(2015)</t>
+  </si>
+  <si>
+    <t>Personal Edition</t>
+  </si>
+  <si>
+    <t>Professional Edition</t>
+  </si>
+  <si>
+    <t>Game Engine inklusive aller Funktionen</t>
+  </si>
+  <si>
+    <t>Unterstützung aller Plattformen (Unity Splash Screen)</t>
+  </si>
+  <si>
+    <t>Unity Cloud Building</t>
+  </si>
+  <si>
+    <t>Lizenzfreiheit</t>
+  </si>
+  <si>
+    <t>Team Lizenz</t>
+  </si>
+  <si>
+    <t>Game Performance Analyse</t>
+  </si>
+  <si>
+    <t>Keine Einkommensbeschränkung</t>
+  </si>
+  <si>
+    <t>Personalisierbarer Splash Screen</t>
+  </si>
+  <si>
+    <t>Unterstützung aller Plattformen (ohne Zusatzlizenz Unity Splash Screen bei iOS und Android)</t>
+  </si>
+  <si>
+    <t>Unity Analytics zur Analyse des Spielerverhaltens</t>
+  </si>
+  <si>
+    <t>Priorisierte Behandlung bei eingereichten Bugs</t>
+  </si>
+  <si>
+    <t>Zugang zu Beta-Versionen</t>
+  </si>
+  <si>
+    <t>Unterstützung für zukunftige Plattformen</t>
+  </si>
+  <si>
+    <t>Vergünstigungen im Asset Store</t>
   </si>
 </sst>
 </file>
@@ -2096,8 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3129,4 +3178,109 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
+++ b/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-4335" windowWidth="31065" windowHeight="27795" tabRatio="500" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="38400" yWindow="-4335" windowWidth="31065" windowHeight="27795" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Android Versionen" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="286">
   <si>
     <t>Android Versionen</t>
   </si>
@@ -810,12 +810,6 @@
     <t>Gesamt</t>
   </si>
   <si>
-    <t>Unity3D(2015)</t>
-  </si>
-  <si>
-    <t>Cocos2D-X(2015)</t>
-  </si>
-  <si>
     <t>libGDX(2015)</t>
   </si>
   <si>
@@ -865,6 +859,36 @@
   </si>
   <si>
     <t>Vergünstigungen im Asset Store</t>
+  </si>
+  <si>
+    <t>Unity3D(2015)a</t>
+  </si>
+  <si>
+    <t>Unity3D(2015)b</t>
+  </si>
+  <si>
+    <t>Unity3D(2015)c</t>
+  </si>
+  <si>
+    <t>Cocos2D-X(2015)a</t>
+  </si>
+  <si>
+    <t>Cocos2D-X(2015)c</t>
+  </si>
+  <si>
+    <t>Cocos2D-X(2015)b</t>
+  </si>
+  <si>
+    <t>Unify Community Wiki(2014)</t>
+  </si>
+  <si>
+    <t>Lua(2015)</t>
+  </si>
+  <si>
+    <t>Boo(2015)</t>
+  </si>
+  <si>
+    <t>James Whitcomb Riley(1849–1916)</t>
   </si>
 </sst>
 </file>
@@ -2143,10 +2167,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2173,182 +2197,222 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>259</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>216</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>165</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>218</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A39">
-    <sortCondition ref="A39"/>
+  <sortState ref="A1:A47">
+    <sortCondition ref="A47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3184,7 +3248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3192,92 +3256,92 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
+++ b/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="291">
   <si>
     <t>Android Versionen</t>
   </si>
@@ -889,13 +889,28 @@
   </si>
   <si>
     <t>James Whitcomb Riley(1849–1916)</t>
+  </si>
+  <si>
+    <t>Hölzl \&amp; Raed \&amp; Wirsing(2013)</t>
+  </si>
+  <si>
+    <t>Schmidt, Julia(2015)</t>
+  </si>
+  <si>
+    <t>Brown(2015)</t>
+  </si>
+  <si>
+    <t>Unity3D(2015)d</t>
+  </si>
+  <si>
+    <t>Skeet(2014)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -991,6 +1006,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1134,7 +1155,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1249,6 +1270,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2167,10 +2189,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2202,219 +2224,245 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>259</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>283</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>162</v>
+      <c r="A35" s="44" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>282</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>276</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>277</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>216</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>218</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A47">
-    <sortCondition ref="A47"/>
+  <sortState ref="A1:A52">
+    <sortCondition ref="A52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 

--- a/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
+++ b/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
@@ -2191,7 +2191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>

--- a/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
+++ b/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-4335" windowWidth="31065" windowHeight="27795" tabRatio="500" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="38400" yWindow="-4335" windowWidth="31065" windowHeight="27795" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Android Versionen" sheetId="1" r:id="rId1"/>
     <sheet name="WP_Versions" sheetId="4" r:id="rId2"/>
     <sheet name="Quellen_Reihenfolge" sheetId="3" r:id="rId3"/>
-    <sheet name="Zielplattformen" sheetId="5" r:id="rId4"/>
-    <sheet name="IOS Versionen" sheetId="2" r:id="rId5"/>
-    <sheet name="Unity_Produkte" sheetId="7" r:id="rId6"/>
+    <sheet name="Game Service" sheetId="9" r:id="rId4"/>
+    <sheet name="Schnittstellen" sheetId="8" r:id="rId5"/>
+    <sheet name="Zielplattformen" sheetId="5" r:id="rId6"/>
+    <sheet name="IOS Versionen" sheetId="2" r:id="rId7"/>
+    <sheet name="Unity_Produkte" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="317">
   <si>
     <t>Android Versionen</t>
   </si>
@@ -473,9 +475,6 @@
   </si>
   <si>
     <t>Sue Smith(2013)</t>
-  </si>
-  <si>
-    <t>the iphone wiki(2015</t>
   </si>
   <si>
     <t>Oracle - Java SE(2015)</t>
@@ -810,9 +809,6 @@
     <t>Gesamt</t>
   </si>
   <si>
-    <t>libGDX(2015)</t>
-  </si>
-  <si>
     <t>Personal Edition</t>
   </si>
   <si>
@@ -900,10 +896,94 @@
     <t>Brown(2015)</t>
   </si>
   <si>
-    <t>Unity3D(2015)d</t>
-  </si>
-  <si>
     <t>Skeet(2014)</t>
+  </si>
+  <si>
+    <t>Schnittstelle</t>
+  </si>
+  <si>
+    <t>libGDX</t>
+  </si>
+  <si>
+    <t>Cocos2D-X</t>
+  </si>
+  <si>
+    <t>Accelerometer</t>
+  </si>
+  <si>
+    <t>Gyroskop</t>
+  </si>
+  <si>
+    <t>Kompass</t>
+  </si>
+  <si>
+    <t>Kamera</t>
+  </si>
+  <si>
+    <t>Netzwerkverbindung</t>
+  </si>
+  <si>
+    <t>Geoposition</t>
+  </si>
+  <si>
+    <t>Bluetooth</t>
+  </si>
+  <si>
+    <t>Vibration</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Cocos2D-X(2015)d</t>
+  </si>
+  <si>
+    <t>libGDX(2013)b</t>
+  </si>
+  <si>
+    <t>libGDX(2013)a</t>
+  </si>
+  <si>
+    <t>Unity3D(2014)d</t>
+  </si>
+  <si>
+    <t>Unity3D(2015)e</t>
+  </si>
+  <si>
+    <t>the iphone wiki(2015)</t>
+  </si>
+  <si>
+    <t>Game Service</t>
+  </si>
+  <si>
+    <t>Erfolge</t>
+  </si>
+  <si>
+    <t>Bestenlisten</t>
+  </si>
+  <si>
+    <t>Multiplayer - Echtzeit</t>
+  </si>
+  <si>
+    <t>Multiplayer - Rundenbasiert</t>
+  </si>
+  <si>
+    <t>Spielstand sichern</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>Analyse Spielerverhalten</t>
+  </si>
+  <si>
+    <t>Shop System</t>
+  </si>
+  <si>
+    <t>Freundesliste</t>
+  </si>
+  <si>
+    <t>Soziale Netzwerke</t>
   </si>
 </sst>
 </file>
@@ -1955,32 +2035,32 @@
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>175</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="30">
         <v>40624</v>
@@ -1988,7 +2068,7 @@
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="30">
         <v>40666</v>
@@ -1996,7 +2076,7 @@
     </row>
     <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="33">
         <v>40787</v>
@@ -2004,10 +2084,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="30">
         <v>40813</v>
@@ -2015,7 +2095,7 @@
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" s="30">
         <v>40864</v>
@@ -2023,7 +2103,7 @@
     </row>
     <row r="9" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C9" s="30">
         <v>40912</v>
@@ -2031,7 +2111,7 @@
     </row>
     <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" s="33">
         <v>41061</v>
@@ -2040,10 +2120,10 @@
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C11" s="30">
         <v>41087</v>
@@ -2051,7 +2131,7 @@
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C12" s="35">
         <v>41136</v>
@@ -2060,18 +2140,18 @@
     </row>
     <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="36" t="s">
         <v>189</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C14" s="30">
         <v>41304</v>
@@ -2079,7 +2159,7 @@
     </row>
     <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C15" s="37">
         <v>41347</v>
@@ -2088,40 +2168,40 @@
     </row>
     <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B16" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>194</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B17" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>196</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="C18" s="32" t="s">
         <v>199</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>201</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>202</v>
       </c>
       <c r="C19" s="40">
         <v>41474</v>
@@ -2129,34 +2209,34 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="C21" s="32" t="s">
         <v>206</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C23" s="40">
         <v>42105</v>
@@ -2164,10 +2244,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>212</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>213</v>
       </c>
       <c r="C24" s="40">
         <v>42328</v>
@@ -2175,7 +2255,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C25" s="40">
         <v>42346</v>
@@ -2189,17 +2269,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -2209,257 +2289,272 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>286</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>259</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>287</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
-        <v>290</v>
+      <c r="A35" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>158</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>147</v>
+      <c r="A37" s="44" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>282</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>217</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>218</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A52">
-    <sortCondition ref="A52"/>
+  <sortState ref="A1:A55">
+    <sortCondition ref="A55"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2467,6 +2562,188 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
@@ -2481,65 +2758,65 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B4" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="D4" s="43" t="s">
         <v>226</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B9" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="D9" s="43" t="s">
         <v>226</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>227</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
@@ -2548,7 +2825,7 @@
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G10" s="43"/>
       <c r="H10" s="43"/>
@@ -2556,77 +2833,77 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G17" s="43"/>
       <c r="H17" s="43"/>
@@ -2634,63 +2911,63 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
@@ -2698,49 +2975,49 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G28" s="43"/>
       <c r="H28" s="43"/>
@@ -2748,91 +3025,91 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
@@ -2840,49 +3117,49 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G41" s="43"/>
       <c r="H41" s="43"/>
@@ -2890,44 +3167,44 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B45" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="C45" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="D45" s="43" t="s">
         <v>226</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2950,7 +3227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
@@ -3292,7 +3569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
@@ -3304,92 +3581,92 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
+++ b/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="323">
   <si>
     <t>Android Versionen</t>
   </si>
@@ -962,28 +962,46 @@
     <t>Bestenlisten</t>
   </si>
   <si>
-    <t>Multiplayer - Echtzeit</t>
-  </si>
-  <si>
-    <t>Multiplayer - Rundenbasiert</t>
-  </si>
-  <si>
     <t>Spielstand sichern</t>
   </si>
   <si>
-    <t>Events</t>
-  </si>
-  <si>
     <t>Analyse Spielerverhalten</t>
   </si>
   <si>
     <t>Shop System</t>
   </si>
   <si>
-    <t>Freundesliste</t>
-  </si>
-  <si>
-    <t>Soziale Netzwerke</t>
+    <t>Multiplayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Play Services / App42 </t>
+  </si>
+  <si>
+    <t>Soziale Netzwerke / Freundesliste</t>
+  </si>
+  <si>
+    <t>App42</t>
+  </si>
+  <si>
+    <t>gdx-pay</t>
+  </si>
+  <si>
+    <t>App42 / NextPeer</t>
+  </si>
+  <si>
+    <t>SDKBOX-IAP</t>
+  </si>
+  <si>
+    <t>Soomla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social API / App42 / NextPeer / Soomla </t>
+  </si>
+  <si>
+    <t>Unity Analytics / App42 / Soomla</t>
+  </si>
+  <si>
+    <t>Google Play Services / App42 / NextPeer</t>
   </si>
 </sst>
 </file>
@@ -2563,10 +2581,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2589,50 +2607,98 @@
       <c r="A2" t="s">
         <v>307</v>
       </c>
+      <c r="B2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>308</v>
       </c>
+      <c r="B3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D3" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>312</v>
+      </c>
+      <c r="B4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>309</v>
       </c>
+      <c r="B5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>310</v>
       </c>
+      <c r="B6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>311</v>
       </c>
+      <c r="B7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>316</v>
+      <c r="B8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
+++ b/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-4335" windowWidth="31065" windowHeight="27795" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="38400" yWindow="-4335" windowWidth="31065" windowHeight="27795" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Android Versionen" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="328">
   <si>
     <t>Android Versionen</t>
   </si>
@@ -1002,6 +1002,21 @@
   </si>
   <si>
     <t>Google Play Services / App42 / NextPeer</t>
+  </si>
+  <si>
+    <t>Salen \&amp; Zimmerman(2004)</t>
+  </si>
+  <si>
+    <t>Junge(2015)</t>
+  </si>
+  <si>
+    <t>Wikipedia - Flappy Bird(2015)</t>
+  </si>
+  <si>
+    <t>MacLeod(2014)</t>
+  </si>
+  <si>
+    <t>Piskel(2015)</t>
   </si>
 </sst>
 </file>
@@ -2287,10 +2302,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A55"/>
+  <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2392,187 +2407,212 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>302</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
-        <v>287</v>
+      <c r="A37" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>161</v>
+      <c r="A41" s="44" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>305</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>280</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>303</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>274</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>163</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>216</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>217</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A55">
-    <sortCondition ref="A55"/>
+  <sortState ref="A1:A60">
+    <sortCondition ref="A60"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2583,8 +2623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
+++ b/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="331">
   <si>
     <t>Android Versionen</t>
   </si>
@@ -1017,6 +1017,15 @@
   </si>
   <si>
     <t>Piskel(2015)</t>
+  </si>
+  <si>
+    <t>Play Game Services(2015)</t>
+  </si>
+  <si>
+    <t>Nextpeer(2016)</t>
+  </si>
+  <si>
+    <t>App42(2016)</t>
   </si>
 </sst>
 </file>
@@ -2302,10 +2311,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A60"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2322,297 +2331,312 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>324</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>302</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>166</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>218</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>327</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>285</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="44" t="s">
-        <v>287</v>
+      <c r="A41" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>168</v>
+      <c r="A44" s="44" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>305</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>280</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>303</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>145</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>214</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>217</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A60">
-    <sortCondition ref="A60"/>
+  <sortState ref="A1:A63">
+    <sortCondition ref="A63"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
+++ b/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="335">
   <si>
     <t>Android Versionen</t>
   </si>
@@ -935,9 +935,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>Cocos2D-X(2015)d</t>
-  </si>
-  <si>
     <t>libGDX(2013)b</t>
   </si>
   <si>
@@ -1026,6 +1023,21 @@
   </si>
   <si>
     <t>App42(2016)</t>
+  </si>
+  <si>
+    <t>libGDX(2015)c</t>
+  </si>
+  <si>
+    <t>Unity3D(2016)e</t>
+  </si>
+  <si>
+    <t>Apple Developer(2016)b</t>
+  </si>
+  <si>
+    <t>Visual Studio(2016)</t>
+  </si>
+  <si>
+    <t>RoboVM(2016)</t>
   </si>
 </sst>
 </file>
@@ -2311,10 +2323,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A63"/>
+  <dimension ref="A1:A67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2331,7 +2343,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -2341,37 +2353,37 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -2421,7 +2433,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -2431,212 +2443,232 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>218</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>151</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>327</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>323</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="44" t="s">
-        <v>287</v>
+      <c r="A44" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>157</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>147</v>
+      <c r="A46" s="44" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>305</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>280</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>145</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>214</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>215</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>217</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A63">
-    <sortCondition ref="A63"/>
+  <sortState ref="A1:A67">
+    <sortCondition ref="A67"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2655,7 +2687,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B1" t="s">
         <v>289</v>
@@ -2669,100 +2701,100 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" t="s">
         <v>318</v>
-      </c>
-      <c r="D7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
+++ b/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="338">
   <si>
     <t>Android Versionen</t>
   </si>
@@ -1038,6 +1038,15 @@
   </si>
   <si>
     <t>RoboVM(2016)</t>
+  </si>
+  <si>
+    <t>Lumberyard(2016)</t>
+  </si>
+  <si>
+    <t>AppGameKit(2015)</t>
+  </si>
+  <si>
+    <t>MonoGame(2016)</t>
   </si>
 </sst>
 </file>
@@ -2323,10 +2332,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:A70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2348,327 +2357,342 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>332</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>284</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>283</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>323</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>301</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>325</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>328</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>143</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>326</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>327</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>150</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>322</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>285</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
-        <v>287</v>
+      <c r="A46" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>157</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>168</v>
+      <c r="A49" s="44" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>304</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>280</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>302</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>331</v>
+        <v>275</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>163</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>216</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>214</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>217</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A67">
-    <sortCondition ref="A67"/>
+  <sortState ref="A1:A70">
+    <sortCondition ref="A70"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
+++ b/Quellen und Vorlagen/Excell-Sheets/Tabellen.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="345">
   <si>
     <t>Android Versionen</t>
   </si>
@@ -481,9 +481,6 @@
   </si>
   <si>
     <t>Android Develop Tools(2015)</t>
-  </si>
-  <si>
-    <t>Reddit(2015)</t>
   </si>
   <si>
     <t>Microsoft(2014)</t>
@@ -1047,6 +1044,30 @@
   </si>
   <si>
     <t>MonoGame(2016)</t>
+  </si>
+  <si>
+    <t>Wikipedia - Apple iOS(2015)</t>
+  </si>
+  <si>
+    <t>AndEngine(2013)</t>
+  </si>
+  <si>
+    <t>Cocos2D-Android(2010)</t>
+  </si>
+  <si>
+    <t>Cocos2D-iPhone(2015)</t>
+  </si>
+  <si>
+    <t>XNA(2015)</t>
+  </si>
+  <si>
+    <t>SpriteKit(2015)</t>
+  </si>
+  <si>
+    <t>Sparrow(2015)</t>
+  </si>
+  <si>
+    <t>jPCT-AE(2015)</t>
   </si>
 </sst>
 </file>
@@ -2098,32 +2119,32 @@
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>174</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="30">
         <v>40624</v>
@@ -2131,7 +2152,7 @@
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="30">
         <v>40666</v>
@@ -2139,7 +2160,7 @@
     </row>
     <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="33">
         <v>40787</v>
@@ -2147,10 +2168,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="30">
         <v>40813</v>
@@ -2158,7 +2179,7 @@
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C8" s="30">
         <v>40864</v>
@@ -2166,7 +2187,7 @@
     </row>
     <row r="9" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C9" s="30">
         <v>40912</v>
@@ -2174,7 +2195,7 @@
     </row>
     <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="33">
         <v>41061</v>
@@ -2183,10 +2204,10 @@
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" s="30">
         <v>41087</v>
@@ -2194,7 +2215,7 @@
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C12" s="35">
         <v>41136</v>
@@ -2203,18 +2224,18 @@
     </row>
     <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="36" t="s">
         <v>188</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C14" s="30">
         <v>41304</v>
@@ -2222,7 +2243,7 @@
     </row>
     <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" s="37">
         <v>41347</v>
@@ -2231,40 +2252,40 @@
     </row>
     <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B16" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>193</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B17" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>195</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="C18" s="32" t="s">
         <v>198</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>200</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>201</v>
       </c>
       <c r="C19" s="40">
         <v>41474</v>
@@ -2272,34 +2293,34 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="C21" s="32" t="s">
         <v>205</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C23" s="40">
         <v>42105</v>
@@ -2307,10 +2328,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>211</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>212</v>
       </c>
       <c r="C24" s="40">
         <v>42328</v>
@@ -2318,7 +2339,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C25" s="40">
         <v>42346</v>
@@ -2332,367 +2353,402 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A70"/>
+  <dimension ref="A1:A77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>332</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>279</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>284</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>283</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>301</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>281</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>218</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>328</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>326</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>327</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>285</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="44" t="s">
-        <v>287</v>
+      <c r="A49" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>157</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>168</v>
+      <c r="A52" s="44" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>280</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>302</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>275</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>163</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>333</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>145</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>216</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>215</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>164</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>217</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A70">
-    <sortCondition ref="A70"/>
+  <sortState ref="A1:A77">
+    <sortCondition ref="A77"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2711,114 +2767,114 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" t="s">
         <v>289</v>
       </c>
-      <c r="C1" t="s">
-        <v>290</v>
-      </c>
       <c r="D1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" t="s">
         <v>317</v>
-      </c>
-      <c r="D7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2836,92 +2892,92 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" t="s">
         <v>288</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>289</v>
       </c>
-      <c r="C1" t="s">
-        <v>290</v>
-      </c>
       <c r="D1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" t="s">
         <v>298</v>
       </c>
-      <c r="B9" t="s">
-        <v>299</v>
-      </c>
       <c r="D9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -2944,65 +3000,65 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B4" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="D4" s="43" t="s">
         <v>225</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B9" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="D9" s="43" t="s">
         <v>225</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>226</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
@@ -3011,7 +3067,7 @@
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G10" s="43"/>
       <c r="H10" s="43"/>
@@ -3019,77 +3075,77 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G17" s="43"/>
       <c r="H17" s="43"/>
@@ -3097,63 +3153,63 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
@@ -3161,49 +3217,49 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="43"/>
       <c r="H28" s="43"/>
@@ -3211,91 +3267,91 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
@@ -3303,49 +3359,49 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G41" s="43"/>
       <c r="H41" s="43"/>
@@ -3353,44 +3409,44 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B45" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="C45" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="D45" s="43" t="s">
         <v>225</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3767,92 +3823,92 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
